--- a/src/attributions/attributions_saliency_traj_80.xlsx
+++ b/src/attributions/attributions_saliency_traj_80.xlsx
@@ -1004,1140 +1004,1140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02005773968994617</v>
+        <v>7.604923666804098e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01545978058129549</v>
+        <v>6.532478437293321e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02539210766553879</v>
+        <v>2.288133509864565e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02016189508140087</v>
+        <v>7.889171683927998e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04482227936387062</v>
+        <v>1.742133827065118e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02322451584041119</v>
+        <v>3.192738176949206e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0283932164311409</v>
+        <v>6.99416887073312e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01372470241039991</v>
+        <v>8.735686606087256e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008224421180784702</v>
+        <v>1.482144944020547e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01996633782982826</v>
+        <v>9.170158591587096e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004797776229679585</v>
+        <v>3.433882739045657e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03049717843532562</v>
+        <v>2.771160325210076e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0138685554265976</v>
+        <v>3.233272764191497e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01800613850355148</v>
+        <v>1.281075856240932e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00751671614125371</v>
+        <v>8.277977030957118e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0181724950671196</v>
+        <v>4.975278898200486e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002163313096389174</v>
+        <v>6.269125151447952e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006518054753541946</v>
+        <v>4.219052698317682e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007409951183944941</v>
+        <v>3.157996388836182e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002628626301884651</v>
+        <v>4.471872216527117e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006177902687340975</v>
+        <v>2.796202124955016e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02017320692539215</v>
+        <v>5.631076874124119e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>6.481469608843327e-05</v>
+        <v>2.308380317117553e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01790139824151993</v>
+        <v>9.250752555090003e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00820397213101387</v>
+        <v>3.948353423766093e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01214004121720791</v>
+        <v>1.096053892979398e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.008545001037418842</v>
+        <v>1.756337383085338e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00675907963886857</v>
+        <v>6.598485924769193e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.002307413145899773</v>
+        <v>9.411364771949593e-07</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006559227593243122</v>
+        <v>1.670090796324075e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.008548415265977383</v>
+        <v>1.602638803888112e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.007892044261097908</v>
+        <v>1.373561758555297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.003750739153474569</v>
+        <v>1.90834407476359e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.009446018375456333</v>
+        <v>1.906881834656815e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0120411766692996</v>
+        <v>8.469834256175091e-07</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.000448446546215564</v>
+        <v>3.623006023190101e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.005116351880133152</v>
+        <v>6.363881766446866e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001708093797788024</v>
+        <v>8.933135177358054e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01095395721495152</v>
+        <v>6.22418610873865e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.002280469750985503</v>
+        <v>3.214675416529644e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.006588902324438095</v>
+        <v>3.97811527363956e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.004436617717146873</v>
+        <v>2.25977032641822e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.002349257236346602</v>
+        <v>2.030203631875338e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01590714044868946</v>
+        <v>3.318820745334961e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.003573051188141108</v>
+        <v>7.444698439940112e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01776240020990372</v>
+        <v>1.39216660954844e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00738979410380125</v>
+        <v>5.868571861356031e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.001748435199260712</v>
+        <v>1.389701264997711e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00525558041408658</v>
+        <v>8.697473276697565e-06</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01455674134194851</v>
+        <v>2.275327278766781e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.003983591217547655</v>
+        <v>5.021736342314398e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0007526560220867395</v>
+        <v>1.780695129127707e-07</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.01185303833335638</v>
+        <v>7.272282800840912e-06</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0143912835046649</v>
+        <v>2.635403006934212e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.006202350370585918</v>
+        <v>6.011930054228287e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.004205340519547462</v>
+        <v>1.003292618406704e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.02198044024407864</v>
+        <v>1.912806328618899e-05</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.009476913139224052</v>
+        <v>7.246605491673108e-06</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.02349013648927212</v>
+        <v>1.156306643679272e-05</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.02374455332756042</v>
+        <v>2.357141283937381e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.01671154797077179</v>
+        <v>2.682960257516243e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.009479617699980736</v>
+        <v>4.474430625123205e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.002009788062423468</v>
+        <v>1.13361065814388e-05</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.002736411523073912</v>
+        <v>4.929792339680716e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002551640616729856</v>
+        <v>1.212456845678389e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01157275214791298</v>
+        <v>1.718417843221687e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01370745431631804</v>
+        <v>3.496690396787017e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.005244945175945759</v>
+        <v>8.393264579353854e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01704253442585468</v>
+        <v>1.337303092441289e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0009666113182902336</v>
+        <v>2.020046622419613e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0002130813663825393</v>
+        <v>3.964439656556351e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01028438843786716</v>
+        <v>3.91278626921121e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.008492942899465561</v>
+        <v>4.699270903074648e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.001089981058612466</v>
+        <v>3.414171260374133e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01142994407564402</v>
+        <v>3.072995923503186e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.005884908139705658</v>
+        <v>6.811868047407188e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.009298850782215595</v>
+        <v>1.413026529917261e-05</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.01336819585412741</v>
+        <v>2.96497546514729e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.001806841581128538</v>
+        <v>6.090343504183693e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0005356703186407685</v>
+        <v>7.280505997186992e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01138700544834137</v>
+        <v>2.523302555346163e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.004966622684150934</v>
+        <v>2.361897031732951e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.003394846571609378</v>
+        <v>7.170495791797293e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.002333902753889561</v>
+        <v>9.997046390708419e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0003196147736161947</v>
+        <v>1.169775373455195e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.006757187191396952</v>
+        <v>2.46153945226979e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0004993882030248642</v>
+        <v>4.083190560777439e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.007263323292136192</v>
+        <v>9.28161909996561e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.006473035085946321</v>
+        <v>2.103060523950262e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.003215215634554625</v>
+        <v>1.904479404402082e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01706724241375923</v>
+        <v>5.947803401795682e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01450566481798887</v>
+        <v>2.418925305391895e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.008712537586688995</v>
+        <v>1.192038234876236e-05</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.01510341186076403</v>
+        <v>6.897892035340192e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.002026826608926058</v>
+        <v>2.023254637606442e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0009735997300595045</v>
+        <v>5.737709216191433e-06</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00272494088858366</v>
+        <v>4.717839146906044e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.005909114144742489</v>
+        <v>1.504556803411106e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.009401591494679451</v>
+        <v>1.124957270803861e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003008114639669657</v>
+        <v>2.353537411181605e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.004133373498916626</v>
+        <v>5.548611625272315e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.004936783574521542</v>
+        <v>1.184944267151877e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0004277876578271389</v>
+        <v>1.135279262598488e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.006791064515709877</v>
+        <v>3.655740556496312e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0006048814975656569</v>
+        <v>1.841545440584014e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.008504042401909828</v>
+        <v>1.469065182391205e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.004552649334073067</v>
+        <v>1.197920482809423e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.001103908172808588</v>
+        <v>4.500522209127666e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0166300106793642</v>
+        <v>6.275039595493581e-06</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.002521685091778636</v>
+        <v>9.593251888873056e-06</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.006515366490930319</v>
+        <v>2.173029861296527e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0008245122153311968</v>
+        <v>4.21112054027617e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0006559666944667697</v>
+        <v>7.136809472285677e-06</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.008228730410337448</v>
+        <v>3.786234401559341e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.009554455056786537</v>
+        <v>4.400138550408883e-06</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01009142212569714</v>
+        <v>3.296104114269838e-05</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001023816294036806</v>
+        <v>1.53995042637689e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01079363003373146</v>
+        <v>4.300485215935623e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.003462980035692453</v>
+        <v>1.026105474011274e-05</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.005725836846977472</v>
+        <v>4.159239779255586e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.368391819298267e-05</v>
+        <v>3.063953727178159e-06</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.008082376793026924</v>
+        <v>3.200291303073755e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.00783213134855032</v>
+        <v>2.059626240225043e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00481700710952282</v>
+        <v>7.562633186353196e-08</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00447632372379303</v>
+        <v>1.81280086053448e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.01778998784720898</v>
+        <v>7.85293013905175e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0003231153823435307</v>
+        <v>4.129719854972791e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.002684252103790641</v>
+        <v>6.067625690775458e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.009035494178533554</v>
+        <v>2.442816594339092e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0009870273061096668</v>
+        <v>5.511343488251441e-07</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.007998349145054817</v>
+        <v>5.411329766502604e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0156010715290904</v>
+        <v>3.354069349370548e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00665968656539917</v>
+        <v>2.013497351072147e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.005347945261746645</v>
+        <v>1.715204234642442e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.008542010560631752</v>
+        <v>1.047143814503215e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01108388602733612</v>
+        <v>1.13233716092509e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.006246153265237808</v>
+        <v>2.174746259697713e-05</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008858423680067062</v>
+        <v>8.995582447823836e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.004317663609981537</v>
+        <v>8.216797141358256e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.003954685293138027</v>
+        <v>5.937623882346088e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.003830939065665007</v>
+        <v>1.151511878560996e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0003492890391498804</v>
+        <v>6.157765142233984e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00598536292091012</v>
+        <v>1.645770339564478e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.003369477577507496</v>
+        <v>3.192750227754004e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.001421054592356086</v>
+        <v>4.773246928380104e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.005721867084503174</v>
+        <v>4.591925971908495e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.001551292603835464</v>
+        <v>3.820429355982924e-06</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.006870527751743793</v>
+        <v>2.113952405125019e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01222099270671606</v>
+        <v>6.637851583946031e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.003768059425055981</v>
+        <v>2.094894000492786e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.004971335642039776</v>
+        <v>4.145432740187971e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.003681454341858625</v>
+        <v>3.189004246451077e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.006367179099470377</v>
+        <v>9.275540264752635e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.007851464673876762</v>
+        <v>3.065509645239217e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.001378953107632697</v>
+        <v>4.644508862838848e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.004494403954595327</v>
+        <v>3.66816925634339e-06</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001020540366880596</v>
+        <v>9.968528047465952e-07</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.004725231789052486</v>
+        <v>2.452061380608939e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0003619278431870043</v>
+        <v>4.167784027231392e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.006472318433225155</v>
+        <v>8.698018518771278e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.002216974506154656</v>
+        <v>2.816061623889254e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.002474225824698806</v>
+        <v>1.605383545211225e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.007761115673929453</v>
+        <v>2.224504441983299e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.009459258988499641</v>
+        <v>5.317203886079369e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003248585155233741</v>
+        <v>5.19670311405207e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.002770103747025132</v>
+        <v>5.652588583870966e-07</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.005505917128175497</v>
+        <v>1.304621832787234e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00380769232288003</v>
+        <v>3.875667289321427e-07</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.005220180377364159</v>
+        <v>1.023592290039232e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.008438693359494209</v>
+        <v>5.141699148225598e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.01271349936723709</v>
+        <v>1.170223981716845e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001395656727254391</v>
+        <v>4.651678864320274e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.02311421185731888</v>
+        <v>5.862507350684609e-06</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.009204164147377014</v>
+        <v>1.475116187066305e-05</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01841988041996956</v>
+        <v>6.321605269477004e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00171162944752723</v>
+        <v>1.938642890308984e-05</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.005206468049436808</v>
+        <v>2.343317362374364e-07</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.004609358496963978</v>
+        <v>1.347190845990553e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01853165216743946</v>
+        <v>1.080088713933947e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.006451149936765432</v>
+        <v>7.162967904150719e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00347846420481801</v>
+        <v>3.888089850079268e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.002444343641400337</v>
+        <v>1.192473064293154e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01155946962535381</v>
+        <v>6.481269792857347e-06</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.01225093565881252</v>
+        <v>7.856387128413189e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.006041934248059988</v>
+        <v>1.069986637958209e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01130080409348011</v>
+        <v>2.553022932261229e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.001649183104746044</v>
+        <v>6.098370022300514e-07</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01837559416890144</v>
+        <v>4.407216351864918e-07</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.007469471078366041</v>
+        <v>6.240091352083255e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00109118630643934</v>
+        <v>2.122879076913169e-15</v>
       </c>
       <c r="B3" t="n">
-        <v>7.837863086024299e-05</v>
+        <v>1.387370510900869e-15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001245476305484772</v>
+        <v>3.400847871137857e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002660650934558362</v>
+        <v>1.026487295635375e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002512997307348996</v>
+        <v>2.729492945275887e-15</v>
       </c>
       <c r="F3" t="n">
-        <v>3.674160325317644e-05</v>
+        <v>1.126901780982952e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>3.983119313488714e-06</v>
+        <v>2.082048488965486e-15</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001261986180907115</v>
+        <v>1.440736339434969e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009651684085838497</v>
+        <v>1.017242735697394e-15</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007480904459953308</v>
+        <v>2.216907569113158e-15</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001225505984621122</v>
+        <v>6.600279777748113e-16</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001011349886539392</v>
+        <v>2.358948853378837e-15</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0002341482031624764</v>
+        <v>6.53609839726876e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>9.330178727395833e-05</v>
+        <v>1.194284903651278e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>2.450751708238386e-05</v>
+        <v>7.815380727836403e-15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.514201469239197e-06</v>
+        <v>1.149260867339976e-15</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001800060417735949</v>
+        <v>2.896013905233689e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0009679347276687622</v>
+        <v>1.133772340503839e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001466731337131932</v>
+        <v>6.590002091724366e-16</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0001850473490776494</v>
+        <v>4.700500073537544e-15</v>
       </c>
       <c r="U3" t="n">
-        <v>5.845410851179622e-05</v>
+        <v>8.928391126132736e-16</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0002933013311121613</v>
+        <v>3.105670123909534e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>5.312255234457552e-05</v>
+        <v>3.220532132601072e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>9.800706175155938e-05</v>
+        <v>5.613075583217435e-16</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0001556233473820612</v>
+        <v>5.312640937760215e-17</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.207228160637897e-05</v>
+        <v>1.188219830111582e-15</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0001603738637641072</v>
+        <v>9.177876210417018e-16</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.707778937998228e-05</v>
+        <v>6.987628473923097e-16</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001985992566915229</v>
+        <v>9.276219911966794e-16</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.000173996013472788</v>
+        <v>7.051674752647362e-16</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001415441656718031</v>
+        <v>1.591626365142376e-15</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0002192965912399814</v>
+        <v>1.648974413198873e-15</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.30167851340957e-05</v>
+        <v>4.698261471337069e-16</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0001329471851931885</v>
+        <v>1.259859018054154e-15</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0001664068404352292</v>
+        <v>1.256466651100401e-15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0001065098185790703</v>
+        <v>2.068039940446439e-16</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.000122183992061764</v>
+        <v>1.917170137650647e-15</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.669419907557312e-05</v>
+        <v>2.167738153557993e-15</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.937559449695982e-05</v>
+        <v>1.703900370542697e-15</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.86323621973861e-05</v>
+        <v>1.209752439952191e-16</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.358991231536493e-05</v>
+        <v>1.524777466153883e-15</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0003355903027113527</v>
+        <v>1.151668558492546e-15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.912713560159318e-05</v>
+        <v>7.347660886944721e-16</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.05098544433713e-05</v>
+        <v>4.464449672950544e-16</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.769580169115216e-05</v>
+        <v>9.057891875856078e-16</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0005112977232784033</v>
+        <v>1.570108128392091e-15</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.264747495763004e-05</v>
+        <v>3.437853470053976e-15</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0002685569052118808</v>
+        <v>2.030923062576874e-15</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.121099042706192e-05</v>
+        <v>5.536735891813194e-15</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0002448232553433627</v>
+        <v>4.203850351727984e-15</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.786898590391502e-05</v>
+        <v>4.485433326031994e-15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0001610148174222559</v>
+        <v>1.317938002604572e-16</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.076475902867969e-05</v>
+        <v>6.811335506611059e-16</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0004553284379653633</v>
+        <v>1.239480570013518e-15</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0002108208427671343</v>
+        <v>3.788207684620273e-16</v>
       </c>
       <c r="BD3" t="n">
-        <v>4.13747602578951e-06</v>
+        <v>5.176256457153656e-15</v>
       </c>
       <c r="BE3" t="n">
-        <v>4.989667104382534e-06</v>
+        <v>2.500140034202827e-16</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0001045982135110535</v>
+        <v>5.746537270760375e-16</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0001095900806831196</v>
+        <v>4.697424496906064e-15</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.478079477441497e-05</v>
+        <v>1.741403283677973e-15</v>
       </c>
       <c r="BI3" t="n">
-        <v>7.755419937893748e-05</v>
+        <v>1.902615570517976e-15</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.879125920822844e-05</v>
+        <v>3.270714228984238e-16</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0002370087604504079</v>
+        <v>6.91957096479799e-18</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0001178477614303119</v>
+        <v>1.325548540696093e-15</v>
       </c>
       <c r="BM3" t="n">
-        <v>7.985068805282936e-06</v>
+        <v>2.499390727681862e-15</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0001362718612654135</v>
+        <v>3.567261469669594e-15</v>
       </c>
       <c r="BO3" t="n">
-        <v>9.221201617037877e-05</v>
+        <v>8.889735718793602e-16</v>
       </c>
       <c r="BP3" t="n">
-        <v>5.314847658155486e-05</v>
+        <v>1.113490560098308e-15</v>
       </c>
       <c r="BQ3" t="n">
-        <v>8.599842840339988e-05</v>
+        <v>2.88457996629738e-16</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0001049671409418806</v>
+        <v>1.017044424108618e-15</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.000195298736798577</v>
+        <v>1.117838247867667e-16</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0001361211470793933</v>
+        <v>5.74079438737799e-16</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0001930899161379784</v>
+        <v>2.4276658835325e-15</v>
       </c>
       <c r="BV3" t="n">
-        <v>3.241625381633639e-05</v>
+        <v>5.612525011801719e-17</v>
       </c>
       <c r="BW3" t="n">
-        <v>5.781817162642255e-05</v>
+        <v>7.689130572927267e-16</v>
       </c>
       <c r="BX3" t="n">
-        <v>7.933567394502461e-05</v>
+        <v>2.922358959233902e-15</v>
       </c>
       <c r="BY3" t="n">
-        <v>7.754310900054406e-06</v>
+        <v>6.236357895311815e-16</v>
       </c>
       <c r="BZ3" t="n">
-        <v>5.833289469592273e-05</v>
+        <v>2.681384226728921e-15</v>
       </c>
       <c r="CA3" t="n">
-        <v>7.882107456680387e-05</v>
+        <v>9.903122760515095e-17</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0001173903510789387</v>
+        <v>2.113620583283206e-15</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0003802497230935842</v>
+        <v>1.004311824845492e-15</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0001512545422883704</v>
+        <v>2.865899184041279e-16</v>
       </c>
       <c r="CE3" t="n">
-        <v>8.111504575936124e-05</v>
+        <v>1.370961894525777e-15</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.966554918908514e-05</v>
+        <v>1.069889433259275e-15</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0001015977177303284</v>
+        <v>1.765936851841365e-15</v>
       </c>
       <c r="CH3" t="n">
-        <v>8.785787940723822e-06</v>
+        <v>4.881812981611484e-16</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.949342524516396e-05</v>
+        <v>1.86344728472928e-15</v>
       </c>
       <c r="CJ3" t="n">
-        <v>3.638004636741243e-05</v>
+        <v>1.009961719892135e-16</v>
       </c>
       <c r="CK3" t="n">
-        <v>5.277340824250132e-05</v>
+        <v>1.223197420393738e-15</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0001656350068515167</v>
+        <v>1.207261766040569e-16</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0001357062865281478</v>
+        <v>2.244554195115947e-16</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0001420459011569619</v>
+        <v>4.530890196179343e-15</v>
       </c>
       <c r="CO3" t="n">
-        <v>7.818546873750165e-05</v>
+        <v>7.143441772757301e-17</v>
       </c>
       <c r="CP3" t="n">
-        <v>6.628644769079983e-05</v>
+        <v>1.863706265052903e-15</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.687369487830438e-05</v>
+        <v>2.484492265172607e-15</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.000160688316100277</v>
+        <v>1.633295515707841e-15</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.926748493337072e-05</v>
+        <v>9.207858000376268e-16</v>
       </c>
       <c r="CT3" t="n">
-        <v>6.539349124068394e-05</v>
+        <v>3.471330964986545e-15</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0001225358864758164</v>
+        <v>1.926755797756487e-15</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0001384007482556626</v>
+        <v>5.080555233701517e-17</v>
       </c>
       <c r="CW3" t="n">
-        <v>8.060166146606207e-05</v>
+        <v>9.699159344398627e-16</v>
       </c>
       <c r="CX3" t="n">
-        <v>4.05058563046623e-05</v>
+        <v>1.269656648155044e-15</v>
       </c>
       <c r="CY3" t="n">
-        <v>3.522715996950865e-05</v>
+        <v>1.801859307376183e-15</v>
       </c>
       <c r="CZ3" t="n">
-        <v>2.546152791182976e-05</v>
+        <v>1.345171541226897e-15</v>
       </c>
       <c r="DA3" t="n">
-        <v>7.851074042264372e-05</v>
+        <v>2.088747460787083e-15</v>
       </c>
       <c r="DB3" t="n">
-        <v>5.777668775408529e-05</v>
+        <v>4.045741964183634e-16</v>
       </c>
       <c r="DC3" t="n">
-        <v>5.586788756772876e-05</v>
+        <v>1.236800875405761e-15</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0001965871197171509</v>
+        <v>8.324251229250711e-16</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0002074272197205573</v>
+        <v>2.286943006049222e-15</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0002252032427350059</v>
+        <v>1.962317629014012e-15</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0003345075529068708</v>
+        <v>3.314383383156848e-15</v>
       </c>
       <c r="DH3" t="n">
-        <v>5.201124076847918e-05</v>
+        <v>8.908475263960419e-16</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0002268051612190902</v>
+        <v>4.857644167011003e-15</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.30334892674e-05</v>
+        <v>2.054748828833716e-15</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0001789679081412032</v>
+        <v>2.686119776178783e-15</v>
       </c>
       <c r="DL3" t="n">
-        <v>5.306863022269681e-05</v>
+        <v>3.126518886994133e-15</v>
       </c>
       <c r="DM3" t="n">
-        <v>6.52074595564045e-06</v>
+        <v>2.725746518550181e-15</v>
       </c>
       <c r="DN3" t="n">
-        <v>7.625621947227046e-05</v>
+        <v>1.538831966210318e-15</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.000119333497423213</v>
+        <v>5.445375765155292e-16</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.000120543256343808</v>
+        <v>2.046014436839867e-15</v>
       </c>
       <c r="DQ3" t="n">
-        <v>5.47052659385372e-05</v>
+        <v>4.476384367177357e-16</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.000177969632204622</v>
+        <v>5.028265507587345e-16</v>
       </c>
       <c r="DS3" t="n">
-        <v>3.301797551102936e-05</v>
+        <v>6.706084251376424e-17</v>
       </c>
       <c r="DT3" t="n">
-        <v>3.174092125846073e-05</v>
+        <v>1.076540230081997e-15</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0001975659106392413</v>
+        <v>5.91437049651171e-16</v>
       </c>
       <c r="DV3" t="n">
-        <v>6.304834823822603e-05</v>
+        <v>5.418027718266411e-16</v>
       </c>
       <c r="DW3" t="n">
-        <v>9.963332558982074e-08</v>
+        <v>3.140438179416363e-16</v>
       </c>
       <c r="DX3" t="n">
-        <v>4.049101698910818e-05</v>
+        <v>1.812422231744918e-15</v>
       </c>
       <c r="DY3" t="n">
-        <v>5.998345659463666e-05</v>
+        <v>1.047625489878051e-15</v>
       </c>
       <c r="DZ3" t="n">
-        <v>2.799155663524289e-05</v>
+        <v>1.245788106734366e-15</v>
       </c>
       <c r="EA3" t="n">
-        <v>6.536278669955209e-05</v>
+        <v>1.549721951175811e-15</v>
       </c>
       <c r="EB3" t="n">
-        <v>3.813033981714398e-05</v>
+        <v>2.488687831118594e-15</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.352140498056542e-05</v>
+        <v>1.863640831757728e-15</v>
       </c>
       <c r="ED3" t="n">
-        <v>9.354778740089387e-05</v>
+        <v>1.684179855343841e-15</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0001115306367864832</v>
+        <v>1.433431315539611e-15</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0002348614943912253</v>
+        <v>7.065254278978625e-16</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.0002059540420304984</v>
+        <v>9.472305921673797e-17</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.055083864950575e-06</v>
+        <v>1.510128243089356e-15</v>
       </c>
       <c r="EI3" t="n">
-        <v>2.262352609250229e-05</v>
+        <v>3.763246682455873e-15</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0001086412521544844</v>
+        <v>6.780658620239468e-16</v>
       </c>
       <c r="EK3" t="n">
-        <v>7.067743717925623e-05</v>
+        <v>1.043880227822648e-15</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0001203782157972455</v>
+        <v>1.711120373505974e-16</v>
       </c>
       <c r="EM3" t="n">
-        <v>3.006996166732279e-06</v>
+        <v>5.974943410756641e-16</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0002670625108294189</v>
+        <v>1.9999961625195e-17</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0001280009018955752</v>
+        <v>1.350032451552952e-15</v>
       </c>
       <c r="EP3" t="n">
-        <v>9.961199793906417e-06</v>
+        <v>3.205189613069218e-16</v>
       </c>
       <c r="EQ3" t="n">
-        <v>8.721795165911317e-05</v>
+        <v>5.08032574071237e-15</v>
       </c>
       <c r="ER3" t="n">
-        <v>9.402301657246426e-05</v>
+        <v>7.227148744978523e-16</v>
       </c>
       <c r="ES3" t="n">
-        <v>4.470626299735159e-05</v>
+        <v>2.531994084612865e-15</v>
       </c>
       <c r="ET3" t="n">
-        <v>9.306342690251768e-05</v>
+        <v>1.538916140109451e-15</v>
       </c>
       <c r="EU3" t="n">
-        <v>8.857018838170916e-05</v>
+        <v>9.282931192235906e-17</v>
       </c>
       <c r="EV3" t="n">
-        <v>8.311502824653871e-06</v>
+        <v>2.482794387629835e-15</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0001547485153423622</v>
+        <v>1.285325063613355e-15</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0001270131615456194</v>
+        <v>9.134783144527659e-17</v>
       </c>
       <c r="EY3" t="n">
-        <v>9.863032028079033e-05</v>
+        <v>3.641163294372518e-16</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3.691973688546568e-05</v>
+        <v>1.749284501735701e-15</v>
       </c>
       <c r="FA3" t="n">
-        <v>8.83690663613379e-05</v>
+        <v>1.755174662971789e-15</v>
       </c>
       <c r="FB3" t="n">
-        <v>2.561673318268731e-05</v>
+        <v>1.351321741577792e-15</v>
       </c>
       <c r="FC3" t="n">
-        <v>9.461144509259611e-05</v>
+        <v>2.117002997599829e-15</v>
       </c>
       <c r="FD3" t="n">
-        <v>4.218214235152118e-05</v>
+        <v>1.641743345867722e-16</v>
       </c>
       <c r="FE3" t="n">
-        <v>8.824867109069601e-05</v>
+        <v>1.420541591664768e-15</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0001901241339510307</v>
+        <v>5.107966013968054e-16</v>
       </c>
       <c r="FG3" t="n">
-        <v>5.309106563800015e-05</v>
+        <v>1.570064506195307e-16</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0002613398828543723</v>
+        <v>3.246678557375154e-15</v>
       </c>
       <c r="FI3" t="n">
-        <v>7.418503810185939e-05</v>
+        <v>1.813718403912454e-15</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0002512295905034989</v>
+        <v>2.617399635826017e-17</v>
       </c>
       <c r="FK3" t="n">
-        <v>9.352574852528051e-05</v>
+        <v>1.275988642952244e-15</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.559766133141238e-05</v>
+        <v>7.155671869724469e-16</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0001401524932589382</v>
+        <v>1.053602895507706e-15</v>
       </c>
       <c r="FN3" t="n">
-        <v>9.929726365953684e-05</v>
+        <v>1.258567504567828e-15</v>
       </c>
       <c r="FO3" t="n">
-        <v>1.134859667217825e-05</v>
+        <v>2.309321828273918e-15</v>
       </c>
       <c r="FP3" t="n">
-        <v>9.440135181648657e-05</v>
+        <v>8.375355903332115e-16</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.0002502966672182083</v>
+        <v>1.500956570336487e-15</v>
       </c>
       <c r="FR3" t="n">
-        <v>3.260615631006658e-05</v>
+        <v>2.218302208860812e-15</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.000217781838728115</v>
+        <v>1.661454914281073e-15</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0001110805751523003</v>
+        <v>4.522906910651471e-15</v>
       </c>
       <c r="FU3" t="n">
-        <v>4.922676453134045e-06</v>
+        <v>1.554578891034927e-16</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0001345601776847616</v>
+        <v>7.700890037213117e-16</v>
       </c>
       <c r="FW3" t="n">
-        <v>1.288357566409104e-06</v>
+        <v>1.089170444237625e-15</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0001859028707258403</v>
+        <v>1.280315604884174e-15</v>
       </c>
       <c r="FY3" t="n">
-        <v>4.949245339957997e-05</v>
+        <v>6.991884814483049e-16</v>
       </c>
       <c r="FZ3" t="n">
-        <v>4.306239861762151e-05</v>
+        <v>3.331827179672603e-15</v>
       </c>
       <c r="GA3" t="n">
-        <v>6.01564534008503e-05</v>
+        <v>6.705984195609529e-16</v>
       </c>
       <c r="GB3" t="n">
-        <v>3.618431583163328e-05</v>
+        <v>1.844924368238723e-15</v>
       </c>
       <c r="GC3" t="n">
-        <v>2.059286998701282e-07</v>
+        <v>4.329186240449676e-15</v>
       </c>
       <c r="GD3" t="n">
-        <v>3.525518332025968e-05</v>
+        <v>2.330448947560808e-15</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.942293783940841e-05</v>
+        <v>4.445591013775519e-16</v>
       </c>
       <c r="GF3" t="n">
-        <v>3.262148311478086e-06</v>
+        <v>3.51409194102102e-15</v>
       </c>
       <c r="GG3" t="n">
-        <v>7.194936188170686e-05</v>
+        <v>1.132346572295373e-15</v>
       </c>
     </row>
     <row r="4">
